--- a/DB/Firestore.xlsx
+++ b/DB/Firestore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qdeda\_proy\esbrina\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{430FAB33-E817-4530-ADB9-AB19D31301D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D34E4B-7B53-4A15-A09B-10194DF243C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1F0DB9A7-B207-4CB1-BA6A-9EC301E433AD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{1F0DB9A7-B207-4CB1-BA6A-9EC301E433AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Pregs" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="162">
   <si>
     <t>Document ID</t>
   </si>
@@ -482,13 +482,55 @@
   </si>
   <si>
     <t>"¿Quién cantó la canción 'Girls Just Wanna Have Fun'?"</t>
+  </si>
+  <si>
+    <t>aliase</t>
+  </si>
+  <si>
+    <t>creado</t>
+  </si>
+  <si>
+    <t>existe</t>
+  </si>
+  <si>
+    <t>psw</t>
+  </si>
+  <si>
+    <t>reputacion</t>
+  </si>
+  <si>
+    <t>vetado</t>
+  </si>
+  <si>
+    <t>"Benni"</t>
+  </si>
+  <si>
+    <t>1 de julio de 2024, 8:20:18 p.m. UTC+2</t>
+  </si>
+  <si>
+    <t>"bbenni@gmail.com"</t>
+  </si>
+  <si>
+    <t>"Quim"</t>
+  </si>
+  <si>
+    <t>24 de julio de 2024, 3:22:56 a.m. UTC+2</t>
+  </si>
+  <si>
+    <t>"qdedalmases@gmail.com"</t>
+  </si>
+  <si>
+    <t>"zzx"</t>
+  </si>
+  <si>
+    <t>"bnn"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +541,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -525,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -541,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C7278D-D6E5-4946-9212-4D8E6C7228B4}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
@@ -3513,14 +3566,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7669A3-F4F4-4A23-B8DD-AE10A19549E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>